--- a/FalseAug_SymDiGCN__output.xlsx
+++ b/FalseAug_SymDiGCN__output.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,54 +871,1041 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:7, time:4.870300, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:148, time:4.478767, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:6, time:4.628754, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:147, time:4.435561, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:5, time:5.673015, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:146, time:4.648865, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:4, time:4.232679, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:145, time:6.522475, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:3, time:4.768224, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:144, time:5.966630, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:2, time:4.093972, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:143, time:4.918226, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:1, time:4.498309, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+          <t>Epoch:142, time:5.359743, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:4.760631, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:4.533307, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:4.943178, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:4.303185, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:4.886108, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:4.846793, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:5.134377, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:4.509815, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:4.752276, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:5.154799, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:4.443121, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:6.104584, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:5.472620, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:5.906744, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:4.265093, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:4.694252, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:4.351727, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:4.309802, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:4.649049, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:4.915932, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:5.534808, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:4.431454, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:4.387792, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:4.415403, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:4.812826, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:5.162410, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:4.798910, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:5.162811, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:4.333395, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:5.746769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:4.678195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:4.373352, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:4.383675, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:4.387689, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:5.031841, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:4.192865, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:5.871235, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:5.334074, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:4.705552, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:4.479056, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:4.710435, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:4.549149, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:4.104333, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:5.220511, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:4.880850, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:4.248286, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:4.969452, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:5.201031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:5.372031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:4.663308, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:6.427476, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:5.807681, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:4.283769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:4.329998, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:4.415195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:4.286838, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:4.741569, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:4.323360, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:4.291596, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:5.883979, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:4.419943, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:4.706227, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:4.827532, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:5.788627, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:4.519539, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:5.315543, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:5.217335, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:4.200741, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:5.382712, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:4.553801, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:4.239497, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:4.636525, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:4.257613, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:5.000517, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:4.249514, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:5.752151, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:4.325184, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:4.542788, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:4.198515, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:4.412440, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:5.566345, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:4.114091, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:4.690963, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:4.360324, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:5.589315, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:5.091226, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:4.972139, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:5.943566, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:3.997481, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:5.556394, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:4.735450, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:4.497461, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:5.562736, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:4.083212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:4.252212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:4.109487, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:4.328581, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:4.299793, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:4.519636, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:4.527831, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:4.241591, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:4.102296, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:4.717399, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:5.544421, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:4.209458, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:5.279931, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:5.567335, test_Acc: 22.00, test_bacc: 25.19, test_f1: 11.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:4.245360, test_Acc: 22.00, test_bacc: 25.20, test_f1: 11.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:5.393839, test_Acc: 21.91, test_bacc: 25.13, test_f1: 10.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:5.576461, test_Acc: 21.66, test_bacc: 24.86, test_f1: 10.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:4.096117, test_Acc: 21.53, test_bacc: 24.74, test_f1: 10.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:5.094363, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:4.962199, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:4.273035, test_Acc: 18.90, test_bacc: 21.88, test_f1: 9.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:4.267256, test_Acc: 18.13, test_bacc: 21.05, test_f1: 9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:4.284537, test_Acc: 16.90, test_bacc: 19.72, test_f1: 8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:5.680642, test_Acc: 15.75, test_bacc: 18.49, test_f1: 8.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:4.318900, test_Acc: 14.31, test_bacc: 16.84, test_f1: 7.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:4.279490, test_Acc: 13.67, test_bacc: 16.11, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:4.668185, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:4.908999, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:4.745588, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:4.183954, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:6.224877, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:4.424130, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:5.311822, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:5.651474, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:4.267244, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:4.896013, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:4.680212, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:4.508692, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:4.476575, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:4.680416, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:5.557657, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:4.870300, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:4.628754, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:5.673015, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:4.232679, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:4.768224, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:4.093972, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:4.498309, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Epoch:0, time:6.207960, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
         </is>

--- a/FalseAug_SymDiGCN__output.xlsx
+++ b/FalseAug_SymDiGCN__output.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A150"/>
+  <dimension ref="A1:A237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,1041 +871,1650 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:148, time:4.478767, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
+          <t>Epoch:235, time:9.126551, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:147, time:4.435561, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
+          <t>Epoch:234, time:7.752836, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:146, time:4.648865, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
+          <t>Epoch:233, time:7.502522, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:145, time:6.522475, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
+          <t>Epoch:232, time:7.530907, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:144, time:5.966630, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
+          <t>Epoch:231, time:7.670616, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:143, time:4.918226, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
+          <t>Epoch:230, time:8.359192, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:142, time:5.359743, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
+          <t>Epoch:229, time:7.163102, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:141, time:4.760631, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:228, time:6.881550, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:140, time:4.533307, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:227, time:6.842336, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:139, time:4.943178, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:226, time:5.188867, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:138, time:4.303185, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:225, time:7.406901, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:137, time:4.886108, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:224, time:6.898489, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:136, time:4.846793, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:223, time:10.299680, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:135, time:5.134377, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:222, time:8.123104, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:134, time:4.509815, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:221, time:7.379103, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:133, time:4.752276, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:220, time:8.495656, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:132, time:5.154799, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:219, time:6.043689, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:131, time:4.443121, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:218, time:6.694473, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:130, time:6.104584, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:217, time:7.583558, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:129, time:5.472620, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:216, time:5.049947, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:128, time:5.906744, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:215, time:4.830148, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:127, time:4.265093, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:214, time:4.226470, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:126, time:4.694252, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:213, time:5.937485, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:125, time:4.351727, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:212, time:4.115952, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:124, time:4.309802, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:211, time:4.373433, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:123, time:4.649049, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+          <t>Epoch:210, time:4.227821, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:122, time:4.915932, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+          <t>Epoch:209, time:4.313237, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:121, time:5.534808, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+          <t>Epoch:208, time:4.217223, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:120, time:4.431454, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+          <t>Epoch:207, time:4.493098, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:119, time:4.387792, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:206, time:5.310926, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:118, time:4.415403, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:205, time:4.225570, test_Acc: 27.22, test_bacc: 26.72, test_f1: 20.23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:117, time:4.812826, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:204, time:5.157638, test_Acc: 27.22, test_bacc: 26.72, test_f1: 20.23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:116, time:5.162410, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:203, time:4.731497, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:115, time:4.798910, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:202, time:4.300969, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:114, time:5.162811, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:201, time:5.125041, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:113, time:4.333395, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:200, time:4.405077, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:112, time:5.746769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:199, time:4.465750, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:111, time:4.678195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:198, time:4.093645, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:110, time:4.373352, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:197, time:4.735131, test_Acc: 26.67, test_bacc: 26.57, test_f1: 19.94</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:109, time:4.383675, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:196, time:4.742153, test_Acc: 26.67, test_bacc: 26.57, test_f1: 19.94</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:108, time:4.387689, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:195, time:4.311359, test_Acc: 26.58, test_bacc: 26.71, test_f1: 20.03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:107, time:5.031841, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:194, time:4.689804, test_Acc: 26.58, test_bacc: 26.71, test_f1: 20.03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:106, time:4.192865, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:193, time:5.032978, test_Acc: 26.28, test_bacc: 26.70, test_f1: 19.92</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:105, time:5.871235, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:192, time:4.864351, test_Acc: 26.28, test_bacc: 26.70, test_f1: 19.92</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:104, time:5.334074, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:191, time:5.505018, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:103, time:4.705552, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:190, time:4.418950, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:102, time:4.479056, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:189, time:5.253363, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:101, time:4.710435, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:188, time:5.549413, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:100, time:4.549149, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:187, time:5.207773, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:99, time:4.104333, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:186, time:5.046573, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:98, time:5.220511, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:185, time:4.957881, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:97, time:4.880850, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:184, time:4.227377, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:96, time:4.248286, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:183, time:4.765554, test_Acc: 25.99, test_bacc: 26.91, test_f1: 19.79</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:95, time:4.969452, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:182, time:4.353387, test_Acc: 25.99, test_bacc: 26.91, test_f1: 19.79</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:94, time:5.201031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:181, time:5.286580, test_Acc: 25.99, test_bacc: 26.87, test_f1: 19.75</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:93, time:5.372031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:180, time:4.261139, test_Acc: 25.99, test_bacc: 26.87, test_f1: 19.75</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:92, time:4.663308, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:179, time:4.743217, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:91, time:6.427476, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:178, time:4.216590, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:90, time:5.807681, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:177, time:5.485384, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:89, time:4.283769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:176, time:4.926839, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:88, time:4.329998, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:175, time:4.621729, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:87, time:4.415195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:174, time:5.552323, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:86, time:4.286838, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:173, time:4.222083, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:85, time:4.741569, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:172, time:5.241128, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:84, time:4.323360, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:171, time:5.456882, test_Acc: 25.14, test_bacc: 26.61, test_f1: 18.86</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:83, time:4.291596, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:170, time:4.329387, test_Acc: 25.14, test_bacc: 26.61, test_f1: 18.86</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:82, time:5.883979, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:169, time:5.658816, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:81, time:4.419943, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:168, time:4.314086, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:80, time:4.706227, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:167, time:4.903032, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:79, time:4.827532, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:166, time:4.325124, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:78, time:5.788627, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:165, time:4.466417, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:77, time:4.519539, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:164, time:4.863073, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:76, time:5.315543, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:163, time:4.519346, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:75, time:5.217335, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:162, time:5.307182, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:74, time:4.200741, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:161, time:5.012154, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:73, time:5.382712, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:160, time:4.373168, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:72, time:4.553801, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:159, time:5.008768, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:71, time:4.239497, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:158, time:4.294642, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:70, time:4.636525, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:157, time:4.551581, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:69, time:4.257613, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:156, time:4.420732, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:68, time:5.000517, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:155, time:4.258279, test_Acc: 23.91, test_bacc: 26.58, test_f1: 16.85</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:67, time:4.249514, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:154, time:4.754188, test_Acc: 23.91, test_bacc: 26.58, test_f1: 16.85</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:66, time:5.752151, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:153, time:5.124042, test_Acc: 23.78, test_bacc: 26.64, test_f1: 16.58</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:65, time:4.325184, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:152, time:4.247310, test_Acc: 23.78, test_bacc: 26.64, test_f1: 16.58</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:64, time:4.542788, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:151, time:5.754029, test_Acc: 23.65, test_bacc: 26.68, test_f1: 16.28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:63, time:4.198515, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:150, time:4.374391, test_Acc: 23.65, test_bacc: 26.68, test_f1: 16.28</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:62, time:4.412440, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:149, time:4.996231, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:61, time:5.566345, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:148, time:4.478767, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:60, time:4.114091, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:147, time:4.435561, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:59, time:4.690963, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:146, time:4.648865, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:58, time:4.360324, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:145, time:6.522475, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:57, time:5.589315, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:144, time:5.966630, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:56, time:5.091226, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:143, time:4.918226, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:55, time:4.972139, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:142, time:5.359743, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:54, time:5.943566, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:141, time:4.760631, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:53, time:3.997481, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:140, time:4.533307, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:52, time:5.556394, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:139, time:4.943178, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:51, time:4.735450, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:138, time:4.303185, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:50, time:4.497461, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:137, time:4.886108, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:49, time:5.562736, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:136, time:4.846793, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:48, time:4.083212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:135, time:5.134377, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:47, time:4.252212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:134, time:4.509815, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:46, time:4.109487, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:133, time:4.752276, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:45, time:4.328581, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:132, time:5.154799, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:44, time:4.299793, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:131, time:4.443121, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:43, time:4.519636, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:130, time:6.104584, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:42, time:4.527831, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:129, time:5.472620, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:41, time:4.241591, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:128, time:5.906744, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:40, time:4.102296, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:127, time:4.265093, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:39, time:4.717399, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:126, time:4.694252, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:38, time:5.544421, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:125, time:4.351727, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:37, time:4.209458, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.79</t>
+          <t>Epoch:124, time:4.309802, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:36, time:5.279931, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.65</t>
+          <t>Epoch:123, time:4.649049, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:35, time:5.567335, test_Acc: 22.00, test_bacc: 25.19, test_f1: 11.48</t>
+          <t>Epoch:122, time:4.915932, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:34, time:4.245360, test_Acc: 22.00, test_bacc: 25.20, test_f1: 11.22</t>
+          <t>Epoch:121, time:5.534808, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:33, time:5.393839, test_Acc: 21.91, test_bacc: 25.13, test_f1: 10.84</t>
+          <t>Epoch:120, time:4.431454, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:32, time:5.576461, test_Acc: 21.66, test_bacc: 24.86, test_f1: 10.42</t>
+          <t>Epoch:119, time:4.387792, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:31, time:4.096117, test_Acc: 21.53, test_bacc: 24.74, test_f1: 10.09</t>
+          <t>Epoch:118, time:4.415403, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:30, time:5.094363, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+          <t>Epoch:117, time:4.812826, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:29, time:4.962199, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+          <t>Epoch:116, time:5.162410, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:28, time:4.273035, test_Acc: 18.90, test_bacc: 21.88, test_f1: 9.06</t>
+          <t>Epoch:115, time:4.798910, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:27, time:4.267256, test_Acc: 18.13, test_bacc: 21.05, test_f1: 9.27</t>
+          <t>Epoch:114, time:5.162811, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:26, time:4.284537, test_Acc: 16.90, test_bacc: 19.72, test_f1: 8.91</t>
+          <t>Epoch:113, time:4.333395, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:25, time:5.680642, test_Acc: 15.75, test_bacc: 18.49, test_f1: 8.47</t>
+          <t>Epoch:112, time:5.746769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:24, time:4.318900, test_Acc: 14.31, test_bacc: 16.84, test_f1: 7.02</t>
+          <t>Epoch:111, time:4.678195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:23, time:4.279490, test_Acc: 13.67, test_bacc: 16.11, test_f1: 6.28</t>
+          <t>Epoch:110, time:4.373352, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:22, time:4.668185, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:109, time:4.383675, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:21, time:4.908999, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:108, time:4.387689, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:20, time:4.745588, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:107, time:5.031841, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:19, time:4.183954, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:106, time:4.192865, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:18, time:6.224877, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:105, time:5.871235, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:17, time:4.424130, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:104, time:5.334074, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:16, time:5.311822, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:103, time:4.705552, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:15, time:5.651474, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:102, time:4.479056, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:14, time:4.267244, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:101, time:4.710435, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:13, time:4.896013, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:100, time:4.549149, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:12, time:4.680212, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:99, time:4.104333, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:11, time:4.508692, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:98, time:5.220511, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:10, time:4.476575, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:97, time:4.880850, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:9, time:4.680416, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:96, time:4.248286, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:8, time:5.557657, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:95, time:4.969452, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:7, time:4.870300, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:94, time:5.201031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:6, time:4.628754, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:93, time:5.372031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:5, time:5.673015, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:92, time:4.663308, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:4, time:4.232679, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:91, time:6.427476, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:3, time:4.768224, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:90, time:5.807681, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:2, time:4.093972, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:89, time:4.283769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:1, time:4.498309, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+          <t>Epoch:88, time:4.329998, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:4.415195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:4.286838, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:4.741569, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:4.323360, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:4.291596, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:5.883979, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:4.419943, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:4.706227, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:4.827532, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:5.788627, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:4.519539, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:5.315543, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:5.217335, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:4.200741, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:5.382712, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:4.553801, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:4.239497, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:4.636525, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:4.257613, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:5.000517, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:4.249514, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:5.752151, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:4.325184, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:4.542788, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:4.198515, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:4.412440, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:5.566345, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:4.114091, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:4.690963, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:4.360324, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:5.589315, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:5.091226, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:4.972139, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:5.943566, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:3.997481, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:5.556394, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:4.735450, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:4.497461, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:5.562736, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:4.083212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:4.252212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:4.109487, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:4.328581, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:4.299793, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:4.519636, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:4.527831, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:4.241591, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:4.102296, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:4.717399, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:5.544421, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:4.209458, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:5.279931, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:5.567335, test_Acc: 22.00, test_bacc: 25.19, test_f1: 11.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:4.245360, test_Acc: 22.00, test_bacc: 25.20, test_f1: 11.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:5.393839, test_Acc: 21.91, test_bacc: 25.13, test_f1: 10.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:5.576461, test_Acc: 21.66, test_bacc: 24.86, test_f1: 10.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:4.096117, test_Acc: 21.53, test_bacc: 24.74, test_f1: 10.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:5.094363, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:4.962199, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:4.273035, test_Acc: 18.90, test_bacc: 21.88, test_f1: 9.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:4.267256, test_Acc: 18.13, test_bacc: 21.05, test_f1: 9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:4.284537, test_Acc: 16.90, test_bacc: 19.72, test_f1: 8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:5.680642, test_Acc: 15.75, test_bacc: 18.49, test_f1: 8.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:4.318900, test_Acc: 14.31, test_bacc: 16.84, test_f1: 7.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:4.279490, test_Acc: 13.67, test_bacc: 16.11, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:4.668185, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:4.908999, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:4.745588, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:4.183954, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:6.224877, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:4.424130, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:5.311822, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:5.651474, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:4.267244, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:4.896013, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:4.680212, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:4.508692, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:4.476575, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:4.680416, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:5.557657, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:4.870300, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:4.628754, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:5.673015, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:4.232679, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:4.768224, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:4.093972, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:4.498309, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>Epoch:0, time:6.207960, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
         </is>

--- a/FalseAug_SymDiGCN__output.xlsx
+++ b/FalseAug_SymDiGCN__output.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A237"/>
+  <dimension ref="A1:A511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,1652 +872,3666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:235, time:9.126551, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:509, time:4.292685, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:234, time:7.752836, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:508, time:5.467957, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:233, time:7.502522, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:507, time:4.101181, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:232, time:7.530907, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:506, time:4.215529, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:231, time:7.670616, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:505, time:4.088394, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:230, time:8.359192, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:504, time:4.299966, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:229, time:7.163102, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:503, time:4.762745, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:228, time:6.881550, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:502, time:4.866390, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:227, time:6.842336, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:501, time:5.628999, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:226, time:5.188867, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:500, time:4.898496, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:225, time:7.406901, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:499, time:4.131553, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:224, time:6.898489, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:498, time:5.345002, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:223, time:10.299680, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:497, time:4.002820, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:222, time:8.123104, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:496, time:5.857759, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:221, time:7.379103, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:495, time:4.108516, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:220, time:8.495656, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:494, time:4.152639, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:219, time:6.043689, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:493, time:4.043345, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:218, time:6.694473, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:492, time:4.228378, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:217, time:7.583558, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:491, time:4.133547, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:216, time:5.049947, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:490, time:4.716956, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:215, time:4.830148, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:489, time:5.473168, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:214, time:4.226470, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
+          <t>Epoch:488, time:4.073787, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:213, time:5.937485, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:487, time:5.628235, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:212, time:4.115952, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:486, time:4.896408, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:211, time:4.373433, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:485, time:4.258439, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:210, time:4.227821, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:484, time:4.383542, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:209, time:4.313237, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:483, time:4.056020, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:208, time:4.217223, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:482, time:5.703200, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:207, time:4.493098, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:481, time:4.950924, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:206, time:5.310926, test_Acc: 27.43, test_bacc: 26.78, test_f1: 20.31</t>
+          <t>Epoch:480, time:4.879879, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:205, time:4.225570, test_Acc: 27.22, test_bacc: 26.72, test_f1: 20.23</t>
+          <t>Epoch:479, time:5.135651, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:204, time:5.157638, test_Acc: 27.22, test_bacc: 26.72, test_f1: 20.23</t>
+          <t>Epoch:478, time:4.034604, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:203, time:4.731497, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:477, time:5.846384, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:202, time:4.300969, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:476, time:4.596769, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:201, time:5.125041, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:475, time:4.216007, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:200, time:4.405077, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:474, time:4.355054, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:199, time:4.465750, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:473, time:4.239012, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:198, time:4.093645, test_Acc: 26.71, test_bacc: 26.62, test_f1: 20.07</t>
+          <t>Epoch:472, time:4.703892, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:197, time:4.735131, test_Acc: 26.67, test_bacc: 26.57, test_f1: 19.94</t>
+          <t>Epoch:471, time:4.179258, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:196, time:4.742153, test_Acc: 26.67, test_bacc: 26.57, test_f1: 19.94</t>
+          <t>Epoch:470, time:5.925139, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:195, time:4.311359, test_Acc: 26.58, test_bacc: 26.71, test_f1: 20.03</t>
+          <t>Epoch:469, time:4.512743, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:194, time:4.689804, test_Acc: 26.58, test_bacc: 26.71, test_f1: 20.03</t>
+          <t>Epoch:468, time:4.311702, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:193, time:5.032978, test_Acc: 26.28, test_bacc: 26.70, test_f1: 19.92</t>
+          <t>Epoch:467, time:4.086977, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:192, time:4.864351, test_Acc: 26.28, test_bacc: 26.70, test_f1: 19.92</t>
+          <t>Epoch:466, time:4.665572, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:191, time:5.505018, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:465, time:4.409109, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:190, time:4.418950, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:464, time:4.259869, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:189, time:5.253363, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:463, time:4.398144, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:188, time:5.549413, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:462, time:4.689223, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:187, time:5.207773, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:461, time:5.000616, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:186, time:5.046573, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:460, time:4.260144, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:185, time:4.957881, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:459, time:4.493393, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:184, time:4.227377, test_Acc: 26.07, test_bacc: 26.85, test_f1: 19.86</t>
+          <t>Epoch:458, time:4.106690, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:183, time:4.765554, test_Acc: 25.99, test_bacc: 26.91, test_f1: 19.79</t>
+          <t>Epoch:457, time:4.214897, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:182, time:4.353387, test_Acc: 25.99, test_bacc: 26.91, test_f1: 19.79</t>
+          <t>Epoch:456, time:4.113450, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:181, time:5.286580, test_Acc: 25.99, test_bacc: 26.87, test_f1: 19.75</t>
+          <t>Epoch:455, time:4.365926, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:180, time:4.261139, test_Acc: 25.99, test_bacc: 26.87, test_f1: 19.75</t>
+          <t>Epoch:454, time:5.276023, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:179, time:4.743217, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:453, time:4.258054, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:178, time:4.216590, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:452, time:4.078525, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:177, time:5.485384, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:451, time:4.604667, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:176, time:4.926839, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:450, time:4.607665, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:175, time:4.621729, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:449, time:5.092391, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:174, time:5.552323, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:448, time:4.761928, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:173, time:4.222083, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:447, time:4.564536, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:172, time:5.241128, test_Acc: 25.27, test_bacc: 26.53, test_f1: 18.89</t>
+          <t>Epoch:446, time:4.831825, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:171, time:5.456882, test_Acc: 25.14, test_bacc: 26.61, test_f1: 18.86</t>
+          <t>Epoch:445, time:4.962325, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:170, time:4.329387, test_Acc: 25.14, test_bacc: 26.61, test_f1: 18.86</t>
+          <t>Epoch:444, time:4.203362, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:169, time:5.658816, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
+          <t>Epoch:443, time:4.151466, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:168, time:4.314086, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
+          <t>Epoch:442, time:5.127542, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:167, time:4.903032, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
+          <t>Epoch:441, time:5.645934, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:166, time:4.325124, test_Acc: 24.88, test_bacc: 26.62, test_f1: 18.47</t>
+          <t>Epoch:440, time:4.088664, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:165, time:4.466417, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:439, time:4.260207, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:164, time:4.863073, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:438, time:4.033774, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:163, time:4.519346, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:437, time:4.212257, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:162, time:5.307182, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:436, time:4.053643, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:161, time:5.012154, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:435, time:5.369885, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:160, time:4.373168, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:434, time:4.749053, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:159, time:5.008768, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:433, time:4.224041, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:158, time:4.294642, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:432, time:4.219664, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:157, time:4.551581, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:431, time:4.191786, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:156, time:4.420732, test_Acc: 24.03, test_bacc: 26.50, test_f1: 17.01</t>
+          <t>Epoch:430, time:5.350427, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:155, time:4.258279, test_Acc: 23.91, test_bacc: 26.58, test_f1: 16.85</t>
+          <t>Epoch:429, time:4.228976, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:154, time:4.754188, test_Acc: 23.91, test_bacc: 26.58, test_f1: 16.85</t>
+          <t>Epoch:428, time:5.016588, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:153, time:5.124042, test_Acc: 23.78, test_bacc: 26.64, test_f1: 16.58</t>
+          <t>Epoch:427, time:4.080153, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:152, time:4.247310, test_Acc: 23.78, test_bacc: 26.64, test_f1: 16.58</t>
+          <t>Epoch:426, time:5.480631, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:151, time:5.754029, test_Acc: 23.65, test_bacc: 26.68, test_f1: 16.28</t>
+          <t>Epoch:425, time:4.680932, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:150, time:4.374391, test_Acc: 23.65, test_bacc: 26.68, test_f1: 16.28</t>
+          <t>Epoch:424, time:5.123796, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:149, time:4.996231, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
+          <t>Epoch:423, time:5.319465, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:148, time:4.478767, test_Acc: 23.23, test_bacc: 26.55, test_f1: 15.58</t>
+          <t>Epoch:422, time:4.094973, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:147, time:4.435561, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
+          <t>Epoch:421, time:4.332937, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:146, time:4.648865, test_Acc: 23.01, test_bacc: 26.48, test_f1: 15.09</t>
+          <t>Epoch:420, time:4.098806, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:145, time:6.522475, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
+          <t>Epoch:419, time:5.424516, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:144, time:5.966630, test_Acc: 22.93, test_bacc: 26.44, test_f1: 14.76</t>
+          <t>Epoch:418, time:5.044804, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:143, time:4.918226, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
+          <t>Epoch:417, time:4.204864, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:142, time:5.359743, test_Acc: 22.55, test_bacc: 26.18, test_f1: 14.09</t>
+          <t>Epoch:416, time:4.208311, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:141, time:4.760631, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:415, time:4.349145, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:140, time:4.533307, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:414, time:5.772545, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:139, time:4.943178, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:413, time:4.303601, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:138, time:4.303185, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:412, time:4.262276, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:137, time:4.886108, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:411, time:4.063934, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:136, time:4.846793, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:410, time:4.262231, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:135, time:5.134377, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:409, time:4.572073, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:134, time:4.509815, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:408, time:4.214646, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:133, time:4.752276, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:407, time:6.946548, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:132, time:5.154799, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:406, time:4.137901, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:131, time:4.443121, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:405, time:4.402723, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:130, time:6.104584, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:404, time:4.087480, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:129, time:5.472620, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:403, time:4.415444, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:128, time:5.906744, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:402, time:4.439481, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:127, time:4.265093, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:401, time:4.125928, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:126, time:4.694252, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:400, time:4.078149, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:125, time:4.351727, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:399, time:5.138971, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:124, time:4.309802, test_Acc: 22.38, test_bacc: 25.91, test_f1: 12.75</t>
+          <t>Epoch:398, time:4.513445, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:123, time:4.649049, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+          <t>Epoch:397, time:5.116505, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:122, time:4.915932, test_Acc: 22.34, test_bacc: 25.84, test_f1: 12.63</t>
+          <t>Epoch:396, time:4.191666, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:121, time:5.534808, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+          <t>Epoch:395, time:4.217763, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:120, time:4.431454, test_Acc: 22.29, test_bacc: 25.76, test_f1: 12.47</t>
+          <t>Epoch:394, time:4.018901, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:119, time:4.387792, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:393, time:5.986098, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:118, time:4.415403, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:392, time:5.863814, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:117, time:4.812826, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:391, time:5.702722, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:116, time:5.162410, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:390, time:4.241352, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:115, time:4.798910, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:389, time:5.281793, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:114, time:5.162811, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:388, time:4.960510, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:113, time:4.333395, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:387, time:4.745176, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:112, time:5.746769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:386, time:5.673133, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:111, time:4.678195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:385, time:4.555075, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:110, time:4.373352, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:384, time:4.375464, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:109, time:4.383675, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:383, time:4.244817, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:108, time:4.387689, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:382, time:4.709632, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:107, time:5.031841, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:381, time:5.549194, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:106, time:4.192865, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:380, time:4.552696, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:105, time:5.871235, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:379, time:4.908137, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:104, time:5.334074, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:378, time:5.484918, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:103, time:4.705552, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:377, time:4.258394, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:102, time:4.479056, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:376, time:6.098747, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:101, time:4.710435, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:375, time:5.652308, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:100, time:4.549149, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:374, time:4.494929, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:99, time:4.104333, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:373, time:5.211250, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:98, time:5.220511, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:372, time:5.378400, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:97, time:4.880850, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:371, time:4.124646, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:96, time:4.248286, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:370, time:4.522382, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:95, time:4.969452, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:369, time:4.743686, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:94, time:5.201031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:368, time:4.088794, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:93, time:5.372031, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:367, time:5.021300, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:92, time:4.663308, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:366, time:4.654463, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:91, time:6.427476, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:365, time:5.526402, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Epoch:90, time:5.807681, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:364, time:4.734683, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Epoch:89, time:4.283769, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:363, time:4.405431, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Epoch:88, time:4.329998, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:362, time:5.369343, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Epoch:87, time:4.415195, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:361, time:4.435743, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Epoch:86, time:4.286838, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:360, time:4.289281, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Epoch:85, time:4.741569, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:359, time:5.411419, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Epoch:84, time:4.323360, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:358, time:4.188703, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epoch:83, time:4.291596, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:357, time:4.192762, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Epoch:82, time:5.883979, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:356, time:4.143836, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Epoch:81, time:4.419943, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:355, time:5.241562, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Epoch:80, time:4.706227, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:354, time:4.034413, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Epoch:79, time:4.827532, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:353, time:5.175148, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Epoch:78, time:5.788627, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:352, time:5.156611, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Epoch:77, time:4.519539, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:351, time:4.255863, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Epoch:76, time:5.315543, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:350, time:5.280227, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Epoch:75, time:5.217335, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:349, time:4.663538, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Epoch:74, time:4.200741, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:348, time:4.691646, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Epoch:73, time:5.382712, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:347, time:5.570174, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Epoch:72, time:4.553801, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:346, time:4.096485, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Epoch:71, time:4.239497, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:345, time:4.471833, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Epoch:70, time:4.636525, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:344, time:4.013031, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Epoch:69, time:4.257613, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:343, time:5.562652, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epoch:68, time:5.000517, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:342, time:5.113906, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Epoch:67, time:4.249514, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:341, time:4.902825, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Epoch:66, time:5.752151, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:340, time:5.256106, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Epoch:65, time:4.325184, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:339, time:6.318653, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Epoch:64, time:4.542788, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:338, time:4.063181, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Epoch:63, time:4.198515, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:337, time:5.028628, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Epoch:62, time:4.412440, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:336, time:4.637998, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Epoch:61, time:5.566345, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:335, time:5.100599, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Epoch:60, time:4.114091, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:334, time:5.504957, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Epoch:59, time:4.690963, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:333, time:4.344757, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Epoch:58, time:4.360324, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:332, time:5.255649, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Epoch:57, time:5.589315, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:331, time:5.617653, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Epoch:56, time:5.091226, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:330, time:4.120651, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Epoch:55, time:4.972139, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:329, time:5.422866, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Epoch:54, time:5.943566, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:328, time:4.949782, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Epoch:53, time:3.997481, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:327, time:4.453223, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Epoch:52, time:5.556394, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:326, time:4.739318, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Epoch:51, time:4.735450, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:325, time:4.089658, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Epoch:50, time:4.497461, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:324, time:4.695315, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Epoch:49, time:5.562736, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:323, time:4.747948, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Epoch:48, time:4.083212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:322, time:4.777148, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Epoch:47, time:4.252212, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:321, time:5.414296, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Epoch:46, time:4.109487, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:320, time:4.556128, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Epoch:45, time:4.328581, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:319, time:4.200488, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Epoch:44, time:4.299793, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:318, time:4.408130, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Epoch:43, time:4.519636, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:317, time:4.664790, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Epoch:42, time:4.527831, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:316, time:5.402157, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Epoch:41, time:4.241591, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:315, time:4.331855, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Epoch:40, time:4.102296, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:314, time:5.299831, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Epoch:39, time:4.717399, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:313, time:5.067795, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Epoch:38, time:5.544421, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.84</t>
+          <t>Epoch:312, time:4.684073, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Epoch:37, time:4.209458, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.79</t>
+          <t>Epoch:311, time:5.205852, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Epoch:36, time:5.279931, test_Acc: 22.04, test_bacc: 25.23, test_f1: 11.65</t>
+          <t>Epoch:310, time:4.035507, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Epoch:35, time:5.567335, test_Acc: 22.00, test_bacc: 25.19, test_f1: 11.48</t>
+          <t>Epoch:309, time:5.868726, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Epoch:34, time:4.245360, test_Acc: 22.00, test_bacc: 25.20, test_f1: 11.22</t>
+          <t>Epoch:308, time:4.790430, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Epoch:33, time:5.393839, test_Acc: 21.91, test_bacc: 25.13, test_f1: 10.84</t>
+          <t>Epoch:307, time:4.890671, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Epoch:32, time:5.576461, test_Acc: 21.66, test_bacc: 24.86, test_f1: 10.42</t>
+          <t>Epoch:306, time:5.362648, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Epoch:31, time:4.096117, test_Acc: 21.53, test_bacc: 24.74, test_f1: 10.09</t>
+          <t>Epoch:305, time:4.186202, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Epoch:30, time:5.094363, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+          <t>Epoch:304, time:4.810550, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Epoch:29, time:4.962199, test_Acc: 20.17, test_bacc: 23.28, test_f1: 9.42</t>
+          <t>Epoch:303, time:4.223484, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Epoch:28, time:4.273035, test_Acc: 18.90, test_bacc: 21.88, test_f1: 9.06</t>
+          <t>Epoch:302, time:4.281317, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Epoch:27, time:4.267256, test_Acc: 18.13, test_bacc: 21.05, test_f1: 9.27</t>
+          <t>Epoch:301, time:4.594625, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Epoch:26, time:4.284537, test_Acc: 16.90, test_bacc: 19.72, test_f1: 8.91</t>
+          <t>Epoch:300, time:4.249690, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Epoch:25, time:5.680642, test_Acc: 15.75, test_bacc: 18.49, test_f1: 8.47</t>
+          <t>Epoch:299, time:4.151866, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Epoch:24, time:4.318900, test_Acc: 14.31, test_bacc: 16.84, test_f1: 7.02</t>
+          <t>Epoch:298, time:4.232854, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Epoch:23, time:4.279490, test_Acc: 13.67, test_bacc: 16.11, test_f1: 6.28</t>
+          <t>Epoch:297, time:4.134947, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Epoch:22, time:4.668185, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:296, time:4.188563, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Epoch:21, time:4.908999, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:295, time:5.401516, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Epoch:20, time:4.745588, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:294, time:4.384290, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Epoch:19, time:4.183954, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:293, time:5.235630, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Epoch:18, time:6.224877, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:292, time:5.472519, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Epoch:17, time:4.424130, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:291, time:4.127325, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Epoch:16, time:5.311822, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:290, time:4.293223, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Epoch:15, time:5.651474, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:289, time:4.130397, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Epoch:14, time:4.267244, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:288, time:5.162405, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Epoch:13, time:4.896013, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:287, time:4.446464, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Epoch:12, time:4.680212, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:286, time:4.230576, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epoch:11, time:4.508692, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:285, time:6.173233, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Epoch:10, time:4.476575, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:284, time:5.028962, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Epoch:9, time:4.680416, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:283, time:4.565652, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Epoch:8, time:5.557657, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:282, time:4.111537, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Epoch:7, time:4.870300, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:281, time:4.990482, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Epoch:6, time:4.628754, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:280, time:5.844620, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Epoch:5, time:5.673015, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:279, time:4.281093, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Epoch:4, time:4.232679, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:278, time:4.993999, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Epoch:3, time:4.768224, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:277, time:4.479361, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Epoch:2, time:4.093972, test_Acc: 13.89, test_bacc: 15.17, test_f1: 6.23</t>
+          <t>Epoch:276, time:4.183555, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Epoch:1, time:4.498309, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+          <t>Epoch:275, time:4.211313, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Epoch:0, time:6.207960, test_Acc: 14.90, test_bacc: 14.29, test_f1: 3.71</t>
+          <t>Epoch:274, time:4.274281, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:273, time:4.304411, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:272, time:4.247954, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:271, time:4.168786, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:270, time:4.229083, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:269, time:5.022584, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:268, time:4.692941, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:267, time:5.587080, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:266, time:5.166827, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:265, time:6.132395, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:264, time:4.288292, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:263, time:4.260627, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:262, time:5.159526, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:261, time:4.899441, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:260, time:4.120686, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:259, time:5.636107, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:258, time:5.343714, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:257, time:4.959895, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:256, time:4.642968, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:255, time:4.029645, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:254, time:5.497613, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:253, time:4.121927, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:252, time:5.128808, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:251, time:4.670099, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:250, time:4.316257, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:249, time:4.052972, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:248, time:4.164050, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:247, time:4.388376, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:246, time:4.266736, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:245, time:4.089948, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:244, time:4.240041, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:243, time:4.107146, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:242, time:4.158479, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:241, time:4.093501, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:240, time:5.191082, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:239, time:5.580823, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:238, time:4.011732, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:237, time:5.202008, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:236, time:4.227888, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:235, time:5.042382, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:234, time:4.730736, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:233, time:5.131805, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:232, time:5.484977, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:231, time:4.135785, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:230, time:5.772062, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:229, time:4.105197, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:228, time:4.353958, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Epoch:227, time:4.066802, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Epoch:226, time:5.568753, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Epoch:225, time:4.728667, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Epoch:224, time:4.134538, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Epoch:223, time:4.684384, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Epoch:222, time:4.339810, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Epoch:221, time:5.524057, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Epoch:220, time:4.565711, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Epoch:219, time:4.915066, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Epoch:218, time:5.501499, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Epoch:217, time:4.156849, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Epoch:216, time:4.543132, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Epoch:215, time:4.429989, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Epoch:214, time:4.214480, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Epoch:213, time:4.957256, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Epoch:212, time:4.720462, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Epoch:211, time:5.887656, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Epoch:210, time:4.330718, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Epoch:209, time:5.215132, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Epoch:208, time:5.439189, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Epoch:207, time:4.023270, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Epoch:206, time:5.316834, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Epoch:205, time:4.853636, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Epoch:204, time:4.681904, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Epoch:203, time:5.582213, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Epoch:202, time:4.193767, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Epoch:201, time:4.247748, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Epoch:200, time:4.212241, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Epoch:199, time:4.217209, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Epoch:198, time:4.852709, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Epoch:197, time:4.496434, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Epoch:196, time:4.680484, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Epoch:195, time:4.140486, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Epoch:194, time:4.450890, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Epoch:193, time:4.775481, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Epoch:192, time:5.004124, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Epoch:191, time:4.332649, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Epoch:190, time:4.170979, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Epoch:189, time:4.679094, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Epoch:188, time:4.092730, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Epoch:187, time:4.558439, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Epoch:186, time:4.074237, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Epoch:185, time:5.393737, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Epoch:184, time:4.277992, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Epoch:183, time:4.684733, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Epoch:182, time:5.364386, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Epoch:181, time:4.143253, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Epoch:180, time:5.393264, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Epoch:179, time:4.976668, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Epoch:178, time:4.588521, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Epoch:177, time:5.589506, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Epoch:176, time:5.080798, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Epoch:175, time:4.263422, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Epoch:174, time:4.145209, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Epoch:173, time:4.216260, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Epoch:172, time:4.336903, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Epoch:171, time:4.111352, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Epoch:170, time:4.382339, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Epoch:169, time:4.457844, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Epoch:168, time:5.190671, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Epoch:167, time:5.510851, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Epoch:166, time:4.229063, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Epoch:165, time:4.378562, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Epoch:164, time:4.115298, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Epoch:163, time:4.210022, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Epoch:162, time:4.448159, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Epoch:161, time:4.199028, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Epoch:160, time:4.480874, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Epoch:159, time:4.315533, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Epoch:158, time:4.552324, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Epoch:157, time:4.156852, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Epoch:156, time:4.698966, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Epoch:155, time:4.542950, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Epoch:154, time:5.396103, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Epoch:153, time:4.543616, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Epoch:152, time:4.939225, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Epoch:151, time:5.513329, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Epoch:150, time:4.282540, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Epoch:149, time:5.425854, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Epoch:148, time:5.463977, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Epoch:147, time:4.060427, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Epoch:146, time:4.714929, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Epoch:145, time:4.365074, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Epoch:144, time:5.192074, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Epoch:143, time:5.462034, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Epoch:142, time:4.270005, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Epoch:141, time:5.381587, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Epoch:140, time:5.436042, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Epoch:139, time:4.070116, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Epoch:138, time:4.320543, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Epoch:137, time:4.135746, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:4.265711, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:4.539210, test_Acc: 22.72, test_bacc: 23.35, test_f1: 13.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:4.778182, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:5.959951, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:4.942980, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:5.486131, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:4.431818, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:4.945211, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:6.060557, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:4.284711, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:5.826241, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:4.489905, test_Acc: 22.34, test_bacc: 22.93, test_f1: 13.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:5.136362, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:5.589886, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:4.188859, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:5.481134, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:4.285677, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:4.343971, test_Acc: 21.91, test_bacc: 22.72, test_f1: 13.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:4.408209, test_Acc: 22.55, test_bacc: 23.45, test_f1: 14.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:4.320582, test_Acc: 22.55, test_bacc: 23.45, test_f1: 14.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:4.285600, test_Acc: 20.89, test_bacc: 22.21, test_f1: 13.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:4.883680, test_Acc: 20.89, test_bacc: 22.21, test_f1: 13.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:7.045929, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:4.271995, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:6.057028, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:5.692339, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:4.515181, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:6.191940, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:4.152398, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:6.006321, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:4.721714, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:5.900063, test_Acc: 16.82, test_bacc: 18.73, test_f1: 8.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:6.853698, test_Acc: 16.73, test_bacc: 18.86, test_f1: 8.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:6.878405, test_Acc: 16.73, test_bacc: 18.86, test_f1: 8.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:5.125198, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:6.431451, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:4.724784, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:8.277216, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:6.048367, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:7.805607, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:6.480534, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:5.711425, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:6.745566, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:5.282709, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:10.145148, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:5.097520, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:9.603721, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:8.678811, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:9.986782, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:5.754104, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:4.144971, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:5.475647, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:4.960771, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:4.809779, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:5.790864, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:4.172660, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:5.586767, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:5.016159, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:4.446213, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:5.418974, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:4.468976, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:4.426778, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:4.956353, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:4.671145, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:5.511712, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:4.493431, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:4.999682, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:5.552846, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:4.542700, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:5.053559, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:5.454892, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:4.366376, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:4.217250, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:4.438496, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:4.644649, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:5.268574, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:4.145438, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:4.519891, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:4.140020, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:6.390958, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:4.961958, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:5.246758, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:5.446600, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:6.009272, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:5.015633, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:4.710171, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:5.717429, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:4.522031, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:4.394450, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:6.566040, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:4.135023, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:4.324782, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:4.099617, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:4.300905, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:5.745763, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:4.191257, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:4.189394, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:5.448210, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:4.304148, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:4.171704, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:4.242689, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:4.663178, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:4.978313, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:5.607496, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:4.446198, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:5.214474, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:4.342770, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:4.258718, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:5.654196, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:4.234637, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:4.312485, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:3.962654, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:4.831178, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:4.249471, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:5.639216, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:4.366397, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:5.353988, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:4.957882, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:4.850828, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:5.530909, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:5.447202, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:4.299589, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:4.101781, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:4.411272, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:5.668976, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:4.191674, test_Acc: 14.61, test_bacc: 14.76, test_f1: 5.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:4.273138, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:4.477946, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:5.057163, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:5.604673, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:4.229991, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:4.316314, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:4.819830, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:4.581332, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:5.155627, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:4.354230, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:5.214858, test_Acc: 14.61, test_bacc: 14.29, test_f1: 3.64</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Split_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>split: 9, test_Acc: 22.85, test_bacc: 23.41, test_f1: 14.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>split: 8, test_Acc: 21.78, test_bacc: 25.00, test_f1: 11.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>split: 7, test_Acc: 27.90, test_bacc: 30.04, test_f1: 22.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>split: 6, test_Acc: 24.71, test_bacc: 26.43, test_f1: 15.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>split: 5, test_Acc: 22.25, test_bacc: 23.78, test_f1: 16.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>split: 4, test_Acc: 34.01, test_bacc: 35.52, test_f1: 23.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>split: 3, test_Acc: 34.06, test_bacc: 26.92, test_f1: 20.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>split: 2, test_Acc: 25.99, test_bacc: 28.43, test_f1: 20.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>split: 1, test_Acc: 23.74, test_bacc: 26.10, test_f1: 13.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>split: 0, test_Acc: 27.69, test_bacc: 26.81, test_f1: 20.28</t>
         </is>
       </c>
     </row>
